--- a/StarbucksExample/starbucks_workers.xlsx
+++ b/StarbucksExample/starbucks_workers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattzeidenberg/Dropbox/NYU/0479/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzeidenberg/Dropbox/NYU/0479/Data/StarbucksExample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95520C4-3BD0-6246-9474-60116EE5E42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA6E33-0805-7D4A-BEBB-14E9B10B9C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39460" yWindow="2220" windowWidth="27640" windowHeight="16940" xr2:uid="{40ACFE9D-93FA-5446-B81B-FDB74FB814FF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{40ACFE9D-93FA-5446-B81B-FDB74FB814FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,12 +43,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Hourly Pay</t>
-  </si>
-  <si>
-    <t>Weekly Hours</t>
-  </si>
-  <si>
     <t>Store_Number</t>
   </si>
   <si>
@@ -68,6 +62,12 @@
   </si>
   <si>
     <t>Rajiv Patel</t>
+  </si>
+  <si>
+    <t>Hourly_Pay</t>
+  </si>
+  <si>
+    <t>Weekly_Hours</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,16 +437,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>15.75</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -491,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>17</v>
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>15.25</v>
@@ -525,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -542,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>17</v>
